--- a/output/GELIBOLU 380 UNIMAR GUNEY(1).xlsx
+++ b/output/GELIBOLU 380 UNIMAR GUNEY(1).xlsx
@@ -426,7 +426,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>70.61</v>
+        <v>-70.61</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>70.61</v>
+        <v>-70.61</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>69.87</v>
+        <v>-69.87</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>69.48999999999999</v>
+        <v>-69.48999999999999</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>69.12</v>
+        <v>-69.12</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>68.73999999999999</v>
+        <v>-68.73999999999999</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>70.23</v>
+        <v>-70.23</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>103.37</v>
+        <v>-103.37</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>70.16</v>
+        <v>-70.16</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>71.05</v>
+        <v>-71.05</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>81.04000000000001</v>
+        <v>-81.04000000000001</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>78.95999999999999</v>
+        <v>-78.95999999999999</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>76.89</v>
+        <v>-76.89</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>74.81999999999999</v>
+        <v>-74.81999999999999</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>72.75</v>
+        <v>-72.75</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>71.25</v>
+        <v>-71.25</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>71.93000000000001</v>
+        <v>-71.93000000000001</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>70.28</v>
+        <v>-70.28</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>61.8</v>
+        <v>-61.8</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>52.07</v>
+        <v>-52.07</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>46.13</v>
+        <v>-46.13</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>70.64</v>
+        <v>-70.64</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>87.42</v>
+        <v>-87.42</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>79.37</v>
+        <v>-79.37</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>71.31</v>
+        <v>-71.31</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>230.1</v>
+        <v>-230.1</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>71.34</v>
+        <v>-71.34</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>71.09</v>
+        <v>-71.09</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>70.84999999999999</v>
+        <v>-70.84999999999999</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>68.56</v>
+        <v>-68.56</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>71.09999999999999</v>
+        <v>-71.09999999999999</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>71.06</v>
+        <v>-71.06</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>71.02</v>
+        <v>-71.02</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>70.98</v>
+        <v>-70.98</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>70.94</v>
+        <v>-70.94</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>70.90000000000001</v>
+        <v>-70.90000000000001</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>70.86</v>
+        <v>-70.86</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>70.81999999999999</v>
+        <v>-70.81999999999999</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>70.78</v>
+        <v>-70.78</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>70.73999999999999</v>
+        <v>-70.73999999999999</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>70.48</v>
+        <v>-70.48</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>70.95</v>
+        <v>-70.95</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>69.73999999999999</v>
+        <v>-69.73999999999999</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>69.88</v>
+        <v>-69.88</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>70.01000000000001</v>
+        <v>-70.01000000000001</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>70.14</v>
+        <v>-70.14</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>70.27</v>
+        <v>-70.27</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>70.40000000000001</v>
+        <v>-70.40000000000001</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>70.53</v>
+        <v>-70.53</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>70.66</v>
+        <v>-70.66</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>69.39</v>
+        <v>-69.39</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>69.45</v>
+        <v>-69.45</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>69.51000000000001</v>
+        <v>-69.51000000000001</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>69.56999999999999</v>
+        <v>-69.56999999999999</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>69.63</v>
+        <v>-69.63</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>69.69</v>
+        <v>-69.69</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>69.75</v>
+        <v>-69.75</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>69.81</v>
+        <v>-69.81</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>69.86</v>
+        <v>-69.86</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>69.92</v>
+        <v>-69.92</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>70.63</v>
+        <v>-70.63</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>70.64</v>
+        <v>-70.64</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>70.66</v>
+        <v>-70.66</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>70.67</v>
+        <v>-70.67</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>73.37</v>
+        <v>-73.37</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>128.06</v>
+        <v>-128.06</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>182.76</v>
+        <v>-182.76</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>200.7</v>
+        <v>-200.7</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>145.2</v>
+        <v>-145.2</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>89.7</v>
+        <v>-89.7</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>71.06</v>
+        <v>-71.06</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>70.83</v>
+        <v>-70.83</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>70.59999999999999</v>
+        <v>-70.59999999999999</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>70.37</v>
+        <v>-70.37</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>71.65000000000001</v>
+        <v>-71.65000000000001</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>72.40000000000001</v>
+        <v>-72.40000000000001</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>73.15000000000001</v>
+        <v>-73.15000000000001</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>73.90000000000001</v>
+        <v>-73.90000000000001</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>74.65000000000001</v>
+        <v>-74.65000000000001</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>71.63</v>
+        <v>-71.63</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>72.3</v>
+        <v>-72.3</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>72.97</v>
+        <v>-72.97</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>73.64</v>
+        <v>-73.64</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>74.31999999999999</v>
+        <v>-74.31999999999999</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>74.98999999999999</v>
+        <v>-74.98999999999999</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>75.66</v>
+        <v>-75.66</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>76.34</v>
+        <v>-76.34</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>77.01000000000001</v>
+        <v>-77.01000000000001</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>77.68000000000001</v>
+        <v>-77.68000000000001</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>71.8</v>
+        <v>-71.8</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>71.14</v>
+        <v>-71.14</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>72.77</v>
+        <v>-72.77</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>74.40000000000001</v>
+        <v>-74.40000000000001</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>66.8</v>
+        <v>-66.8</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>78.39</v>
+        <v>-78.39</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>80.73999999999999</v>
+        <v>-80.73999999999999</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>83.08</v>
+        <v>-83.08</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>81.81</v>
+        <v>-81.81</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>80.88</v>
+        <v>-80.88</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>86.2</v>
+        <v>-86.2</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>79.01000000000001</v>
+        <v>-79.01000000000001</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>78.06999999999999</v>
+        <v>-78.06999999999999</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>77.13</v>
+        <v>-77.13</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>76.2</v>
+        <v>-76.2</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>75.26000000000001</v>
+        <v>-75.26000000000001</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>101.38</v>
+        <v>-101.38</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>96.88</v>
+        <v>-96.88</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>92.38</v>
+        <v>-92.38</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>87.89</v>
+        <v>-87.89</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>83.39</v>
+        <v>-83.39</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>78.89</v>
+        <v>-78.89</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>64.81</v>
+        <v>-64.81</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>67.39</v>
+        <v>-67.39</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>67.23999999999999</v>
+        <v>-67.23999999999999</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>67.09</v>
+        <v>-67.09</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>66.94</v>
+        <v>-66.94</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>66.79000000000001</v>
+        <v>-66.79000000000001</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>66.65000000000001</v>
+        <v>-66.65000000000001</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>91.2</v>
+        <v>-91.2</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>90.92</v>
+        <v>-90.92</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>90.64</v>
+        <v>-90.64</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>90.36</v>
+        <v>-90.36</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>65.40000000000001</v>
+        <v>-65.40000000000001</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>88.67</v>
+        <v>-88.67</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>111.95</v>
+        <v>-111.95</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>143.46</v>
+        <v>-143.46</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>75.34999999999999</v>
+        <v>-75.34999999999999</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>72.79000000000001</v>
+        <v>-72.79000000000001</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>70.93000000000001</v>
+        <v>-70.93000000000001</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>84.86</v>
+        <v>-84.86</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>84.66</v>
+        <v>-84.66</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>84.45</v>
+        <v>-84.45</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>84.23999999999999</v>
+        <v>-84.23999999999999</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>84.03</v>
+        <v>-84.03</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>150.5</v>
+        <v>-150.5</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>112.3</v>
+        <v>-112.3</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>112.26</v>
+        <v>-112.26</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>112.23</v>
+        <v>-112.23</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>112.19</v>
+        <v>-112.19</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>44.58</v>
+        <v>-44.58</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>44.12</v>
+        <v>-44.12</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>

--- a/output/GELIBOLU 380 UNIMAR GUNEY(1).xlsx
+++ b/output/GELIBOLU 380 UNIMAR GUNEY(1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="8">
   <si>
     <t>GELIBOLU 380 UNIMAR KUZEY</t>
   </si>
@@ -863,7 +863,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>-52.07</v>
+        <v>-51.07</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>-101.38</v>
+        <v>-89.98</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>-96.88</v>
+        <v>-85.98</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>-92.38</v>
+        <v>-81.98999999999999</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>-87.89</v>
+        <v>-77.98999999999999</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>-83.39</v>
+        <v>-74</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>-78.89</v>
+        <v>-70</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>-91.2</v>
+        <v>-68.95</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>-90.92</v>
+        <v>-68.73</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>-90.64</v>
+        <v>-68.51000000000001</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>-90.36</v>
+        <v>-68.29000000000001</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>-65.40000000000001</v>
+        <v>-65.39</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>-88.67</v>
+        <v>-88.66</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>-111.95</v>
+        <v>-111.93</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>-143.46</v>
+        <v>-143.86</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>-84.86</v>
+        <v>-68.97</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>-84.66</v>
+        <v>-68.81</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>-84.45</v>
+        <v>-68.63</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>-84.23999999999999</v>
+        <v>-68.45</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>-84.03</v>
+        <v>-68.26000000000001</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>-150.5</v>
+        <v>-60.45</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>-112.3</v>
+        <v>-67.27</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>-112.26</v>
+        <v>-67.26000000000001</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>-112.23</v>
+        <v>-67.25</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>-112.19</v>
+        <v>-67.23999999999999</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3622,8 +3622,8 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" t="s">
-        <v>7</v>
+      <c r="A141">
+        <v>-61.59</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>-44.58</v>
+        <v>-44.54</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
